--- a/images/Описания.xlsx
+++ b/images/Описания.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUZ\course_work_sql\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8878234-3D21-42E2-ACF2-0C78480E558A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2CD57C-211D-4DCB-9088-6921D17CC53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{1F616B1E-8C92-4D0A-89FC-9DEA68C43E55}"/>
+    <workbookView xWindow="5497" yWindow="-105" windowWidth="16200" windowHeight="9308" xr2:uid="{1F616B1E-8C92-4D0A-89FC-9DEA68C43E55}"/>
   </bookViews>
   <sheets>
     <sheet name="Функции" sheetId="1" r:id="rId1"/>
-    <sheet name="Стркутуры" sheetId="2" r:id="rId2"/>
+    <sheet name="Структуры" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
   <si>
     <t xml:space="preserve"> № </t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Заполнение структуры Athlete данными из строки. Извлекает данные из строки и заполняет поля структуры Athlete. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Вывод справки по командам программы. Отображает доступные команды пользователю в консоли. </t>
   </si>
   <si>
     <t>Основная функция программы. Инициализирует список, отвечает за взаимодействие с пользователем через консольный интерфейс. Включает в себя основной цикл обработки команд пользователя.</t>
@@ -666,17 +663,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C4A296-92C2-4DA7-8F7A-CB9F700FCA47}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="186.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -937,32 +934,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -974,48 +949,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685E08D4-B2AF-4C13-9B0D-A486B62CBFF7}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85.5" x14ac:dyDescent="0.45">
@@ -1023,37 +1001,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="99.75" x14ac:dyDescent="0.45">
@@ -1061,37 +1039,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="K3" s="2">
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="71.25" x14ac:dyDescent="0.45">
@@ -1099,37 +1077,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="K4" s="2">
         <v>3</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="71.25" x14ac:dyDescent="0.45">
@@ -1137,25 +1115,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="71.25" x14ac:dyDescent="0.45">
@@ -1163,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="128.25" x14ac:dyDescent="0.45">
@@ -1177,13 +1155,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="128.25" x14ac:dyDescent="0.45">
@@ -1191,13 +1169,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
